--- a/Liste_Clients.xlsx
+++ b/Liste_Clients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Romai\Desktop\Bot_Email\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5133821F-E376-49EA-88D4-8BD312B53C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6F9CDD-8CF8-46AA-812B-C80CABBC4C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5490" yWindow="2460" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8760" yWindow="3840" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">Spécialitée </t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t xml:space="preserve">Nom De l'entreprise </t>
+  </si>
+  <si>
+    <t>Numéro Siret</t>
   </si>
 </sst>
 </file>
@@ -415,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D2:D7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,7 +435,7 @@
     <col min="7" max="7" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -454,20 +457,23 @@
       <c r="G1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D6" s="1"/>
     </row>
   </sheetData>
